--- a/src/test/resources/TestDataFiles/renameFolder_newUI/TestData.xlsx
+++ b/src/test/resources/TestDataFiles/renameFolder_newUI/TestData.xlsx
@@ -12,44 +12,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+  <si>
+    <t>Variable</t>
+  </si>
   <si>
     <t>Supported Browser Types</t>
   </si>
   <si>
+    <t>Data1</t>
+  </si>
+  <si>
+    <t>Data2</t>
+  </si>
+  <si>
+    <t>Data3</t>
+  </si>
+  <si>
+    <t>Data4</t>
+  </si>
+  <si>
     <t>MozillaFirefox</t>
   </si>
   <si>
+    <t>URL_login_login</t>
+  </si>
+  <si>
     <t>GoogleChrome</t>
   </si>
   <si>
     <t>MicrosoftInternetExplorer</t>
   </si>
   <si>
+    <t>#/login</t>
+  </si>
+  <si>
     <t>MicrosoftEdge</t>
   </si>
   <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Data1</t>
-  </si>
-  <si>
-    <t>Data2</t>
-  </si>
-  <si>
-    <t>Data3</t>
-  </si>
-  <si>
-    <t>Data4</t>
-  </si>
-  <si>
-    <t>URL_login_login</t>
-  </si>
-  <si>
-    <t>#/login</t>
-  </si>
-  <si>
     <t>URL_content</t>
   </si>
   <si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>汉字汉字漢字</t>
+  </si>
+  <si>
+    <t>Automation_Folder_Rename_NoRename</t>
   </si>
 </sst>
 </file>
@@ -301,11 +304,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -385,38 +388,38 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" ht="13.5" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -986,9 +989,15 @@
       <c r="Z26" s="17"/>
     </row>
     <row r="27" ht="13.5" customHeight="1">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -2655,79 +2664,79 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>

--- a/src/test/resources/TestDataFiles/renameFolder_newUI/TestData.xlsx
+++ b/src/test/resources/TestDataFiles/renameFolder_newUI/TestData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
   <si>
     <t>Variable</t>
   </si>
@@ -32,10 +32,13 @@
     <t>Data4</t>
   </si>
   <si>
+    <t>URL_login_login</t>
+  </si>
+  <si>
     <t>MozillaFirefox</t>
   </si>
   <si>
-    <t>URL_login_login</t>
+    <t>#/login</t>
   </si>
   <si>
     <t>GoogleChrome</t>
@@ -44,9 +47,6 @@
     <t>MicrosoftInternetExplorer</t>
   </si>
   <si>
-    <t>#/login</t>
-  </si>
-  <si>
     <t>MicrosoftEdge</t>
   </si>
   <si>
@@ -174,13 +174,37 @@
   </si>
   <si>
     <t>Automation_Folder_Rename_NoRename</t>
+  </si>
+  <si>
+    <t>Automation_Folder_Rename_LongName</t>
+  </si>
+  <si>
+    <t>Automation_Folder_Rename_LongNameRenamed</t>
+  </si>
+  <si>
+    <t>Automation_Folder_Rename_LongName  Automation_Folder_Rename_LongName . Automation_Folder_Rename_LongName . Automation_Folder_Rename_LongName</t>
+  </si>
+  <si>
+    <t>Automation_Folder_Rename_WithSpaces</t>
+  </si>
+  <si>
+    <t>Automation_Folder_Rename_WithSpaces_Renamed</t>
+  </si>
+  <si>
+    <t>Automation      Folder      Rename      WithSpaces</t>
+  </si>
+  <si>
+    <t>Automation_Folder_Rename2</t>
+  </si>
+  <si>
+    <t>Automation_Folder_Rename1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -216,6 +240,11 @@
     <font>
       <sz val="11.0"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Trebuchet MS&quot;"/>
     </font>
   </fonts>
   <fills count="5">
@@ -300,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -354,6 +383,9 @@
     <xf borderId="5" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -416,10 +448,10 @@
     </row>
     <row r="2" ht="13.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1023,9 +1055,15 @@
       <c r="Z27" s="17"/>
     </row>
     <row r="28" ht="13.5" customHeight="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1051,9 +1089,15 @@
       <c r="Z28" s="18"/>
     </row>
     <row r="29" ht="13.5" customHeight="1">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1079,9 +1123,15 @@
       <c r="Z29" s="18"/>
     </row>
     <row r="30" ht="13.5" customHeight="1">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1107,9 +1157,15 @@
       <c r="Z30" s="18"/>
     </row>
     <row r="31" ht="13.5" customHeight="1">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1135,9 +1191,15 @@
       <c r="Z31" s="18"/>
     </row>
     <row r="32" ht="13.5" customHeight="1">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1163,9 +1225,15 @@
       <c r="Z32" s="18"/>
     </row>
     <row r="33" ht="13.5" customHeight="1">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -2680,7 +2748,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2695,7 +2763,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2710,7 +2778,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>

--- a/src/test/resources/TestDataFiles/renameFolder_newUI/TestData.xlsx
+++ b/src/test/resources/TestDataFiles/renameFolder_newUI/TestData.xlsx
@@ -14,12 +14,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
   <si>
+    <t>Supported Browser Types</t>
+  </si>
+  <si>
     <t>Variable</t>
   </si>
   <si>
-    <t>Supported Browser Types</t>
-  </si>
-  <si>
     <t>Data1</t>
   </si>
   <si>
@@ -29,27 +29,27 @@
     <t>Data3</t>
   </si>
   <si>
+    <t>MozillaFirefox</t>
+  </si>
+  <si>
     <t>Data4</t>
   </si>
   <si>
+    <t>GoogleChrome</t>
+  </si>
+  <si>
     <t>URL_login_login</t>
   </si>
   <si>
-    <t>MozillaFirefox</t>
+    <t>MicrosoftInternetExplorer</t>
+  </si>
+  <si>
+    <t>MicrosoftEdge</t>
   </si>
   <si>
     <t>#/login</t>
   </si>
   <si>
-    <t>GoogleChrome</t>
-  </si>
-  <si>
-    <t>MicrosoftInternetExplorer</t>
-  </si>
-  <si>
-    <t>MicrosoftEdge</t>
-  </si>
-  <si>
     <t>URL_content</t>
   </si>
   <si>
@@ -152,7 +152,7 @@
     <t>Automation_Folder_Rename_Arabic_Renamed</t>
   </si>
   <si>
-    <t>لوحة التحكم الآلي إعادة تسمية العربية</t>
+    <t>لوحة التحكم الآلي إعادة تسمية تسمية العربية</t>
   </si>
   <si>
     <t>Automation_Folder_Rename_French</t>
@@ -161,7 +161,7 @@
     <t>Automation_Folder_Rename_French_Renamed</t>
   </si>
   <si>
-    <t>ĉĈćĆąăëêéèçàá</t>
+    <t>ĉĈćĆąăëêéèçàáçàá</t>
   </si>
   <si>
     <t>Automation_Folder_Rename_Chinese</t>
@@ -170,7 +170,7 @@
     <t>Automation_Folder_Rename_Chinese_Renamed</t>
   </si>
   <si>
-    <t>汉字汉字漢字</t>
+    <t>汉字汉字漢字字字</t>
   </si>
   <si>
     <t>Automation_Folder_Rename_NoRename</t>
@@ -204,7 +204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -231,11 +231,6 @@
       <sz val="11.0"/>
       <color rgb="FF212121"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Docs-Calibri"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -333,11 +328,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -371,19 +366,19 @@
     <xf borderId="0" fillId="4" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -420,38 +415,38 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
     <row r="2" ht="13.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -2732,79 +2727,79 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
